--- a/CHL/CHL_platemap_OFAVSS.xlsx
+++ b/CHL/CHL_platemap_OFAVSS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/TO DO : ORGANIZE/CHL/Transplants_Platemaps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/CHL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580DC58-07F4-9B4C-BDDB-B302CF9D15BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B125C7F-710C-834D-93BC-F7026B7499BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="500" windowWidth="14240" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
+    <workbookView xWindow="14820" yWindow="500" windowWidth="23180" windowHeight="14240" xr2:uid="{EBBF6F8E-A352-C449-BF72-C503B922E56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>A1</t>
   </si>
@@ -368,9 +369,6 @@
   </si>
   <si>
     <t>OFAV_SS_2EV10</t>
-  </si>
-  <si>
-    <t>OFAV_SS_2EV3</t>
   </si>
   <si>
     <t>OFAV_SS_2EV30</t>
@@ -809,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B7DC77-4F53-384E-B067-72BD8D0D51CB}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1036,7 +1034,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1044,7 +1042,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1052,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,7 +1058,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,7 +1066,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1076,7 +1074,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1106,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1138,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1146,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1154,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1162,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1170,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1180,7 +1178,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1186,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1194,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,7 +1210,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -1221,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1229,7 +1227,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,7 +1235,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,7 +1243,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1253,7 +1251,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,7 +1259,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,7 +1267,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1285,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1293,7 +1291,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,7 +1299,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,7 +1307,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1317,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1333,135 +1331,139 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
+      </c>
+      <c r="G80">
+        <f>78/2</f>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
